--- a/data/Request/Node_info.xlsx
+++ b/data/Request/Node_info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>ticker</t>
   </si>
@@ -29,6 +29,9 @@
     <t>300288 CH Equity</t>
   </si>
   <si>
+    <t>300399 CH Equity</t>
+  </si>
+  <si>
     <t>OFSS IN Equity</t>
   </si>
   <si>
@@ -107,6 +110,39 @@
     <t>1497616D CH Equity</t>
   </si>
   <si>
+    <t>7012 JP Equity</t>
+  </si>
+  <si>
+    <t>2342 HK Equity</t>
+  </si>
+  <si>
+    <t>603322 CH Equity</t>
+  </si>
+  <si>
+    <t>947 HK Equity</t>
+  </si>
+  <si>
+    <t>1300 HK Equity</t>
+  </si>
+  <si>
+    <t>600050 CH Equity</t>
+  </si>
+  <si>
+    <t>BEI GR Equity</t>
+  </si>
+  <si>
+    <t>SJIUZZ CH Equity</t>
+  </si>
+  <si>
+    <t>SZMEGZ CH Equity</t>
+  </si>
+  <si>
+    <t>268 HK Equity</t>
+  </si>
+  <si>
+    <t>002384 CH Equity</t>
+  </si>
+  <si>
     <t>ACN US Equity</t>
   </si>
   <si>
@@ -179,9 +215,6 @@
     <t>DIF TB Equity</t>
   </si>
   <si>
-    <t>600050 CH Equity</t>
-  </si>
-  <si>
     <t>PHIA NA Equity</t>
   </si>
   <si>
@@ -191,6 +224,27 @@
     <t>601398 CH Equity</t>
   </si>
   <si>
+    <t>1912 HK Equity</t>
+  </si>
+  <si>
+    <t>RIL IN Equity</t>
+  </si>
+  <si>
+    <t>3380 TT Equity</t>
+  </si>
+  <si>
+    <t>DIN US Equity</t>
+  </si>
+  <si>
+    <t>FOSL US Equity</t>
+  </si>
+  <si>
+    <t>002072 CH Equity</t>
+  </si>
+  <si>
+    <t>0918757D CH Equity</t>
+  </si>
+  <si>
     <t>=IF(ISBLANK(A2),"",BDP(A2, "LONG_COMP_NAME",""))</t>
   </si>
   <si>
@@ -356,6 +410,60 @@
     <t>=IF(ISBLANK(A56),"",BDP(A56, "LONG_COMP_NAME",""))</t>
   </si>
   <si>
+    <t>=IF(ISBLANK(A57),"",BDP(A57, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A58),"",BDP(A58, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A59),"",BDP(A59, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A60),"",BDP(A60, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A61),"",BDP(A61, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A62),"",BDP(A62, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A63),"",BDP(A63, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A64),"",BDP(A64, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A65),"",BDP(A65, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A66),"",BDP(A66, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A67),"",BDP(A67, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A68),"",BDP(A68, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A69),"",BDP(A69, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A70),"",BDP(A70, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A71),"",BDP(A71, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A72),"",BDP(A72, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A73),"",BDP(A73, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A74),"",BDP(A74, "LONG_COMP_NAME",""))</t>
+  </si>
+  <si>
     <t>=IF(ISBLANK(A2),"",BDP(A2, "CNTRY_OF_DOMICILE",""))</t>
   </si>
   <si>
@@ -521,6 +629,60 @@
     <t>=IF(ISBLANK(A56),"",BDP(A56, "CNTRY_OF_DOMICILE",""))</t>
   </si>
   <si>
+    <t>=IF(ISBLANK(A57),"",BDP(A57, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A58),"",BDP(A58, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A59),"",BDP(A59, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A60),"",BDP(A60, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A61),"",BDP(A61, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A62),"",BDP(A62, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A63),"",BDP(A63, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A64),"",BDP(A64, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A65),"",BDP(A65, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A66),"",BDP(A66, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A67),"",BDP(A67, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A68),"",BDP(A68, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A69),"",BDP(A69, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A70),"",BDP(A70, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A71),"",BDP(A71, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A72),"",BDP(A72, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A73),"",BDP(A73, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A74),"",BDP(A74, "CNTRY_OF_DOMICILE",""))</t>
+  </si>
+  <si>
     <t>=IF(ISBLANK(A2),"",BDP(A2, "GICS_INDUSTRY_GROUP_NAME",""))</t>
   </si>
   <si>
@@ -684,6 +846,60 @@
   </si>
   <si>
     <t>=IF(ISBLANK(A56),"",BDP(A56, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A57),"",BDP(A57, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A58),"",BDP(A58, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A59),"",BDP(A59, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A60),"",BDP(A60, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A61),"",BDP(A61, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A62),"",BDP(A62, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A63),"",BDP(A63, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A64),"",BDP(A64, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A65),"",BDP(A65, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A66),"",BDP(A66, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A67),"",BDP(A67, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A68),"",BDP(A68, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A69),"",BDP(A69, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A70),"",BDP(A70, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A71),"",BDP(A71, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A72),"",BDP(A72, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A73),"",BDP(A73, "GICS_INDUSTRY_GROUP_NAME",""))</t>
+  </si>
+  <si>
+    <t>=IF(ISBLANK(A74),"",BDP(A74, "GICS_INDUSTRY_GROUP_NAME",""))</t>
   </si>
 </sst>
 </file>
@@ -753,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
@@ -767,13 +983,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -781,13 +997,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -795,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -809,13 +1025,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
@@ -823,13 +1039,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
@@ -837,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -851,13 +1067,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -865,13 +1081,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -879,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -893,13 +1109,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -907,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
@@ -921,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15">
@@ -935,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16">
@@ -949,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
@@ -963,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18">
@@ -977,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -991,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -1005,13 +1221,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
@@ -1019,13 +1235,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
@@ -1033,13 +1249,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
@@ -1047,13 +1263,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
@@ -1061,13 +1277,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
@@ -1075,13 +1291,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
@@ -1089,13 +1305,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
@@ -1103,13 +1319,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
@@ -1117,13 +1333,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -1131,13 +1347,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -1145,13 +1361,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
@@ -1159,13 +1375,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1173,13 +1389,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -1187,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1201,13 +1417,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -1215,13 +1431,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
@@ -1229,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
@@ -1243,13 +1459,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
@@ -1257,13 +1473,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
@@ -1271,13 +1487,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40">
@@ -1285,13 +1501,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
@@ -1299,13 +1515,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
@@ -1313,13 +1529,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
@@ -1327,13 +1543,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44">
@@ -1341,13 +1557,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
@@ -1355,13 +1571,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">
@@ -1369,13 +1585,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
@@ -1383,13 +1599,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48">
@@ -1397,13 +1613,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49">
@@ -1411,13 +1627,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
@@ -1425,13 +1641,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
@@ -1439,13 +1655,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52">
@@ -1453,13 +1669,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
@@ -1467,13 +1683,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54">
@@ -1481,13 +1697,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
@@ -1495,13 +1711,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56">
@@ -1509,13 +1725,265 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
